--- a/avpt.xlsx
+++ b/avpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAC599E-3313-46CB-B7E3-349B23546EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14640C52-DEFB-4604-8D5B-96C36583D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19965" yWindow="120" windowWidth="18420" windowHeight="16410" activeTab="1" xr2:uid="{7B860106-8C97-4DAE-9446-70E758307C11}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>AvePoint Inc</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>gross margin</t>
+  </si>
+  <si>
+    <t>total ARR yoy</t>
+  </si>
+  <si>
+    <t>depreciation &amp; amortization</t>
   </si>
 </sst>
 </file>
@@ -248,12 +254,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -734,13 +739,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF807FA-8B76-4ECA-A501-5B3BA29D9A38}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,109 +754,176 @@
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C1" s="3">
         <f>B1+1</f>
+        <v>2019</v>
+      </c>
+      <c r="D1" s="3">
+        <f>C1+1</f>
+        <v>2020</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="3">
+        <f>E1+1</f>
         <v>2022</v>
       </c>
-      <c r="D1" s="3">
-        <f t="shared" ref="D1:E1" si="0">C1+1</f>
+      <c r="G1" s="3">
+        <f t="shared" ref="G1:H1" si="0">F1+1</f>
         <v>2023</v>
       </c>
-      <c r="E1" s="3">
+      <c r="H1" s="3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4"/>
       <c r="D2" s="3">
+        <v>118.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="G2" s="3">
         <v>264.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="H2" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3">
+        <v>27744</v>
+      </c>
+      <c r="D4" s="3">
+        <v>52074</v>
+      </c>
+      <c r="E4" s="3">
+        <v>85580</v>
+      </c>
+      <c r="F4" s="3">
         <v>117180</v>
       </c>
-      <c r="D4" s="3">
+      <c r="G4" s="3">
         <v>160961</v>
       </c>
-      <c r="E4" s="3">
+      <c r="H4" s="3">
         <v>230667</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3">
+        <v>26985</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38949</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50970</v>
+      </c>
+      <c r="F5" s="3">
         <v>57214</v>
       </c>
-      <c r="D5" s="3">
+      <c r="G5" s="3">
         <v>52744</v>
       </c>
-      <c r="E5" s="3">
+      <c r="H5" s="3">
         <v>44560</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="3">
+        <v>26662</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34140</v>
+      </c>
+      <c r="E6" s="3">
+        <v>31919</v>
+      </c>
+      <c r="F6" s="3">
         <v>41283</v>
       </c>
-      <c r="D6" s="3">
+      <c r="G6" s="3">
         <v>44795</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
         <v>44036</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3">
+        <f>29122+5586</f>
+        <v>34708</v>
+      </c>
+      <c r="D7" s="3">
+        <f>23462+2908</f>
+        <v>26370</v>
+      </c>
+      <c r="E7" s="3">
+        <f>21022+2418</f>
+        <v>23440</v>
+      </c>
+      <c r="F7" s="3">
         <v>16662</v>
       </c>
-      <c r="D7" s="3">
+      <c r="G7" s="3">
         <v>13325</v>
       </c>
-      <c r="E7" s="3">
+      <c r="H7" s="3">
         <v>11219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f>SUM(C4:C7)</f>
+        <v>116099</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:E8" si="1">SUM(D4:D7)</f>
+        <v>151533</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>191909</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F4:F7)</f>
         <v>232339</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" ref="D8:E8" si="1">SUM(D4:D7)</f>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:H8" si="2">SUM(G4:G7)</f>
         <v>271825</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
         <v>330482</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -859,279 +931,513 @@
         <v>-1</v>
       </c>
       <c r="C9" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-11050</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-19039</v>
+      </c>
+      <c r="F9" s="3">
         <v>-27313</v>
       </c>
-      <c r="D9" s="3">
+      <c r="G9" s="3">
         <v>-35924</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>-41544</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3">
+        <v>-1897</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1930</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-950</v>
+      </c>
+      <c r="F10" s="3">
         <v>-2006</v>
       </c>
-      <c r="D10" s="3">
+      <c r="G10" s="3">
         <v>-1946</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>-1584</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="3">
+        <v>-24727</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-26089</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-30726</v>
+      </c>
+      <c r="F11" s="3">
         <v>-36037</v>
       </c>
-      <c r="D11" s="3">
+      <c r="G11" s="3">
         <v>-38807</v>
       </c>
-      <c r="E11" s="3">
+      <c r="H11" s="3">
         <v>-38757</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
+        <v>-2275</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1221</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1949</v>
+      </c>
+      <c r="F12" s="3">
         <v>-920</v>
       </c>
-      <c r="D12" s="3">
+      <c r="G12" s="3">
         <v>-783</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>-641</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>SUM(C9:C12)</f>
+        <v>-36399</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:E13" si="3">SUM(D9:D12)</f>
+        <v>-40290</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>-52664</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM(F9:F12)</f>
         <v>-66276</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" ref="D13:E13" si="2">SUM(D9:D12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:H13" si="4">SUM(G9:G12)</f>
         <v>-77460</v>
       </c>
-      <c r="E13" s="5">
-        <f t="shared" si="2"/>
+      <c r="H13" s="4">
+        <f t="shared" si="4"/>
         <v>-82526</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f>C8+C13</f>
+        <v>79700</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:E14" si="5">D8+D13</f>
+        <v>111243</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="5"/>
+        <v>139245</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F8+F13</f>
         <v>166063</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:E14" si="3">D8+D13</f>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:H14" si="6">G8+G13</f>
         <v>194365</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="6"/>
         <v>247956</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="3">
+        <v>-61901</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-76545</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-100512</v>
+      </c>
+      <c r="F15" s="3">
         <v>-110638</v>
       </c>
-      <c r="D15" s="3">
+      <c r="G15" s="3">
         <v>-112105</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>-122869</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3">
+        <v>-24614</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-36872</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-59221</v>
+      </c>
+      <c r="F16" s="3">
         <v>-65132</v>
       </c>
-      <c r="D16" s="3">
+      <c r="G16" s="3">
         <v>-61271</v>
       </c>
-      <c r="E16" s="3">
+      <c r="H16" s="3">
         <v>-69222</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="3">
+        <v>-11148</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-12204</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-31765</v>
+      </c>
+      <c r="F17" s="3">
         <v>-31359</v>
       </c>
-      <c r="D17" s="3">
+      <c r="G17" s="3">
         <v>-36340</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>-48699</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-1049</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-1059</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1238</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5">
-        <f>SUM(C15:C17)</f>
+      <c r="C19" s="4">
+        <f>SUM(C15:C18)</f>
+        <v>-98712</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM(D15:D18)</f>
+        <v>-126680</v>
+      </c>
+      <c r="E19" s="4">
+        <f>SUM(E15:E18)</f>
+        <v>-192736</v>
+      </c>
+      <c r="F19" s="4">
+        <f>SUM(F15:F18)</f>
         <v>-207129</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" ref="D18:E18" si="4">SUM(D15:D17)</f>
+      <c r="G19" s="4">
+        <f t="shared" ref="G19:H19" si="7">SUM(G15:G17)</f>
         <v>-209716</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" si="4"/>
+      <c r="H19" s="4">
+        <f t="shared" si="7"/>
         <v>-240790</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5">
-        <f>C14+C18</f>
+      <c r="C20" s="4">
+        <f>C14+C19</f>
+        <v>-19012</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:E20" si="8">D14+D19</f>
+        <v>-15437</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="8"/>
+        <v>-53491</v>
+      </c>
+      <c r="F20" s="4">
+        <f>F14+F19</f>
         <v>-41066</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:E19" si="5">D14+D18</f>
+      <c r="G20" s="4">
+        <f t="shared" ref="G20:H20" si="9">G14+G19</f>
         <v>-15351</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" si="5"/>
+      <c r="H20" s="4">
+        <f t="shared" si="9"/>
         <v>7166</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
+        <f>56-604</f>
+        <v>-548</v>
+      </c>
+      <c r="D21" s="3">
+        <f>41-511</f>
+        <v>-470</v>
+      </c>
+      <c r="E21" s="3">
+        <f>102-632</f>
+        <v>-530</v>
+      </c>
+      <c r="F21" s="3">
         <v>7416</v>
       </c>
-      <c r="D20" s="3">
+      <c r="G21" s="3">
         <v>-3263</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H21" s="3">
         <v>-31565</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
+        <v>-614</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-1062</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-457</v>
+      </c>
+      <c r="F22" s="3">
         <v>-5038</v>
       </c>
-      <c r="D21" s="3">
+      <c r="G22" s="3">
         <v>-2887</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H22" s="3">
         <v>-4743</v>
       </c>
-      <c r="F21" s="3">
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>-20174</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:E23" si="10">SUM(D20:D22)</f>
+        <v>-16969</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="10"/>
+        <v>-54478</v>
+      </c>
+      <c r="F23" s="4">
+        <f>SUM(F20:F22)</f>
+        <v>-38688</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:H23" si="11">SUM(G20:G22)</f>
+        <v>-21501</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="11"/>
+        <v>-29142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f>E2/D2-1</f>
+        <v>0.34119629317607392</v>
+      </c>
+      <c r="F26" s="5">
+        <f>F2/E2-1</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5">
-        <f>SUM(C19:C21)</f>
-        <v>-38688</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" ref="D22:E22" si="6">SUM(D19:D21)</f>
-        <v>-21501</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="6"/>
-        <v>-29142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="G26" s="5" t="e">
+        <f>G2/F2-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="5">
+        <f>H2/G2-1</f>
+        <v>0.23629489603024578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6">
-        <f>D8/C8-1</f>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:F27" si="12">D8/C8-1</f>
+        <v>0.30520504052575825</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="12"/>
+        <v>0.26645021216500697</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="12"/>
+        <v>0.21067276678008851</v>
+      </c>
+      <c r="G27" s="5">
+        <f>G8/F8-1</f>
         <v>0.16994994383207307</v>
       </c>
-      <c r="E24" s="6">
-        <f>E8/D8-1</f>
+      <c r="H27" s="5">
+        <f>H8/G8-1</f>
         <v>0.21578957049572334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="6">
-        <f>D14/C14-1</f>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <f>0+(D14/C14-1)</f>
+        <v>0.39577164366373907</v>
+      </c>
+      <c r="E28" s="5">
+        <f>0+(E14/D14-1)</f>
+        <v>0.25171920929856251</v>
+      </c>
+      <c r="F28" s="5">
+        <f>0+(F14/E14-1)</f>
+        <v>0.19259578440877601</v>
+      </c>
+      <c r="G28" s="5">
+        <f>G14/F14-1</f>
         <v>0.17042929490615011</v>
       </c>
-      <c r="E25" s="6">
-        <f>E14/D14-1</f>
+      <c r="H28" s="5">
+        <f>H14/G14-1</f>
         <v>0.2757235098911841</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C29" s="5">
         <f>C14/C8</f>
+        <v>0.68648308770962718</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:E29" si="13">D14/D8</f>
+        <v>0.73411732097958859</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="13"/>
+        <v>0.72557826886701504</v>
+      </c>
+      <c r="F29" s="5">
+        <f>F14/F8</f>
         <v>0.71474440365156089</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" ref="D26:E26" si="7">D14/D8</f>
+      <c r="G29" s="5">
+        <f t="shared" ref="G29:H29" si="14">G14/G8</f>
         <v>0.7150372482295595</v>
       </c>
-      <c r="E26" s="6">
-        <f t="shared" si="7"/>
+      <c r="H29" s="5">
+        <f t="shared" si="14"/>
         <v>0.75028594598192944</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C33" s="3">
+        <v>-2051</v>
+      </c>
+      <c r="D33" s="3">
+        <v>19120</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5030</v>
+      </c>
+      <c r="F33" s="3">
         <v>-774</v>
       </c>
-      <c r="D30" s="3">
+      <c r="G33" s="3">
         <v>34694</v>
       </c>
-      <c r="E30" s="3">
+      <c r="H33" s="3">
         <v>88894</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
